--- a/NIXIEClock_version3.2/BOM.xlsx
+++ b/NIXIEClock_version3.2/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\辉光钟项目打包\Version1.00\Project Outputs for NIXIEClock_version3.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE7A4C7-DEBC-4276-8FE0-921BD92EE9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5475430E-4F5E-45DA-B7A1-1091F8747FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{0D7B645B-92D1-4560-8630-F2E0693A0B26}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="200">
   <si>
     <t>Comment</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>MAX98357</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>C 0603</t>
   </si>
   <si>
-    <t>220pF</t>
-  </si>
-  <si>
     <t>C33, C34</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
   </si>
   <si>
     <t>小功率贴片电感</t>
-  </si>
-  <si>
-    <t>L3, L4</t>
   </si>
   <si>
     <t>L 0805_L</t>
@@ -654,6 +645,18 @@
   </si>
   <si>
     <t>（RS1G）</t>
+  </si>
+  <si>
+    <t>L3, L4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uH(直接用焊锡连通！)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220pF（不焊接！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1053,12 +1056,13 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="6" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1083,19 +1087,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1103,19 +1107,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1123,19 +1127,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1143,19 +1147,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1163,19 +1167,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>17</v>
@@ -1183,19 +1187,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1203,19 +1207,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>8</v>
@@ -1223,19 +1227,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -1243,19 +1247,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1263,19 +1267,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
@@ -1283,19 +1287,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -1303,19 +1307,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1323,19 +1327,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1343,19 +1347,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1363,19 +1367,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1383,19 +1387,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
@@ -1403,19 +1407,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -1423,19 +1427,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1443,19 +1447,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1">
         <v>11</v>
@@ -1463,19 +1467,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -1483,19 +1487,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -1503,19 +1507,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -1523,19 +1527,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1543,19 +1547,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1">
         <v>8</v>
@@ -1563,19 +1567,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1583,19 +1587,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1603,19 +1607,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F28" s="1">
         <v>88</v>
@@ -1623,19 +1627,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -1643,19 +1647,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
@@ -1663,19 +1667,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -1683,19 +1687,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
@@ -1703,19 +1707,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -1723,19 +1727,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -1743,19 +1747,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -1763,19 +1767,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
@@ -1783,19 +1787,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F37" s="1">
         <v>5</v>
@@ -1803,19 +1807,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
@@ -1823,19 +1827,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -1843,19 +1847,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -1863,19 +1867,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F41" s="1">
         <v>22</v>
@@ -1883,19 +1887,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
@@ -1903,19 +1907,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -1923,19 +1927,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
@@ -1943,19 +1947,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -1963,19 +1967,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F46" s="1">
         <v>4</v>
@@ -1983,19 +1987,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -2003,19 +2007,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F48" s="1">
         <v>1</v>
@@ -2023,19 +2027,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -2043,19 +2047,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2063,19 +2067,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2083,19 +2087,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
